--- a/Assets/06.Table/SinsunTowerTable.xlsx
+++ b/Assets/06.Table/SinsunTowerTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D19FA548-36D6-46C6-ACD6-0FA246D9378F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ACD8BA9-2606-4EB6-B648-D8C10B025AE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="59">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -261,6 +261,14 @@
   </si>
   <si>
     <t>섬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>찰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>교</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -517,7 +525,139 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="7">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="dashed">
+          <color rgb="FFFF0000"/>
+        </top>
+        <bottom style="dashed">
+          <color rgb="FFFF0000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="dashed">
+          <color rgb="FFFF0000"/>
+        </top>
+        <bottom style="dashed">
+          <color rgb="FFFF0000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="dashed">
+          <color rgb="FFFF0000"/>
+        </top>
+        <bottom style="dashed">
+          <color rgb="FFFF0000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="dashed">
+          <color rgb="FFFF0000"/>
+        </top>
+        <bottom style="dashed">
+          <color rgb="FFFF0000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="dashed">
+          <color rgb="FFFF0000"/>
+        </top>
+        <bottom style="dashed">
+          <color rgb="FFFF0000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="dashed">
+          <color rgb="FFFF0000"/>
+        </top>
+        <bottom style="dashed">
+          <color rgb="FFFF0000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -850,11 +990,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:J32"/>
+  <dimension ref="A1:J51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A32" sqref="A32"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1105,7 +1245,7 @@
         <v>9029</v>
       </c>
       <c r="D8">
-        <f t="shared" ref="D8:D32" si="0">D3+1</f>
+        <f t="shared" ref="D8:D52" si="0">D3+1</f>
         <v>4</v>
       </c>
       <c r="E8">
@@ -1919,11 +2059,649 @@
         <v>8000</v>
       </c>
     </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33">
+        <v>9029</v>
+      </c>
+      <c r="D33">
+        <v>9</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>2.1475328000000001E+119</v>
+      </c>
+      <c r="G33">
+        <v>1000</v>
+      </c>
+      <c r="H33">
+        <v>8</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>8200</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34">
+        <v>9029</v>
+      </c>
+      <c r="D34">
+        <v>9</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>4.2950656000000002E+119</v>
+      </c>
+      <c r="G34">
+        <v>1000</v>
+      </c>
+      <c r="H34">
+        <v>8</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>8400</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35">
+        <v>9029</v>
+      </c>
+      <c r="D35">
+        <v>9</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>8.5901312000000004E+119</v>
+      </c>
+      <c r="G35">
+        <v>1000</v>
+      </c>
+      <c r="H35">
+        <v>8</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>8600</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36">
+        <v>9029</v>
+      </c>
+      <c r="D36">
+        <v>9</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>1.7180999999999998E+120</v>
+      </c>
+      <c r="G36">
+        <v>1000</v>
+      </c>
+      <c r="H36">
+        <v>8</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>8800</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37">
+        <v>9029</v>
+      </c>
+      <c r="D37">
+        <v>10</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>3.4361999999999996E+120</v>
+      </c>
+      <c r="G37">
+        <v>1000</v>
+      </c>
+      <c r="H37">
+        <v>8</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38">
+        <v>9029</v>
+      </c>
+      <c r="D38">
+        <v>10</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <v>6.8723999999999992E+120</v>
+      </c>
+      <c r="G38">
+        <v>1000</v>
+      </c>
+      <c r="H38">
+        <v>8</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>9200</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39">
+        <v>9029</v>
+      </c>
+      <c r="D39">
+        <v>10</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>1.3744799999999998E+121</v>
+      </c>
+      <c r="G39">
+        <v>1000</v>
+      </c>
+      <c r="H39">
+        <v>8</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>9400</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40">
+        <v>9029</v>
+      </c>
+      <c r="D40">
+        <v>10</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40">
+        <v>2.7489599999999997E+121</v>
+      </c>
+      <c r="G40">
+        <v>1000</v>
+      </c>
+      <c r="H40">
+        <v>8</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>9600</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C41">
+        <v>9029</v>
+      </c>
+      <c r="D41">
+        <v>10</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <v>5.4979199999999994E+121</v>
+      </c>
+      <c r="G41">
+        <v>1000</v>
+      </c>
+      <c r="H41">
+        <v>8</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>9800</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42">
+        <v>9029</v>
+      </c>
+      <c r="D42">
+        <v>11</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42">
+        <v>1.0995839999999999E+122</v>
+      </c>
+      <c r="G42">
+        <v>1000</v>
+      </c>
+      <c r="H42">
+        <v>8</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C43">
+        <v>9029</v>
+      </c>
+      <c r="D43">
+        <v>11</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43">
+        <v>2.1991679999999998E+122</v>
+      </c>
+      <c r="G43">
+        <v>1000</v>
+      </c>
+      <c r="H43">
+        <v>8</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>10200</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C44">
+        <v>9029</v>
+      </c>
+      <c r="D44">
+        <v>11</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44">
+        <v>4.3983359999999995E+122</v>
+      </c>
+      <c r="G44">
+        <v>1000</v>
+      </c>
+      <c r="H44">
+        <v>8</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>10400</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C45">
+        <v>9029</v>
+      </c>
+      <c r="D45">
+        <v>11</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45">
+        <v>8.796671999999999E+122</v>
+      </c>
+      <c r="G45">
+        <v>1000</v>
+      </c>
+      <c r="H45">
+        <v>8</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>10600</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C46">
+        <v>9029</v>
+      </c>
+      <c r="D46">
+        <v>11</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46">
+        <v>1.7593343999999998E+123</v>
+      </c>
+      <c r="G46">
+        <v>1000</v>
+      </c>
+      <c r="H46">
+        <v>8</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>10800</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C47">
+        <v>9029</v>
+      </c>
+      <c r="D47">
+        <v>12</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47">
+        <v>3.5186687999999996E+123</v>
+      </c>
+      <c r="G47">
+        <v>1000</v>
+      </c>
+      <c r="H47">
+        <v>8</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C48">
+        <v>9029</v>
+      </c>
+      <c r="D48">
+        <v>12</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48">
+        <v>7.0373375999999992E+123</v>
+      </c>
+      <c r="G48">
+        <v>1000</v>
+      </c>
+      <c r="H48">
+        <v>8</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>11200</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>47</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C49">
+        <v>9029</v>
+      </c>
+      <c r="D49">
+        <v>12</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49">
+        <v>1.4075E+124</v>
+      </c>
+      <c r="G49">
+        <v>1000</v>
+      </c>
+      <c r="H49">
+        <v>8</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>11400</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>48</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C50">
+        <v>9029</v>
+      </c>
+      <c r="D50">
+        <v>12</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="F50">
+        <v>2.8149999999999999E+124</v>
+      </c>
+      <c r="G50">
+        <v>1000</v>
+      </c>
+      <c r="H50">
+        <v>8</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>11600</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>49</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C51">
+        <v>9029</v>
+      </c>
+      <c r="D51">
+        <v>12</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51">
+        <v>5.6299999999999999E+124</v>
+      </c>
+      <c r="G51">
+        <v>1000</v>
+      </c>
+      <c r="H51">
+        <v>8</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>11800</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2:J32">
-    <cfRule type="expression" dxfId="0" priority="50">
+  <conditionalFormatting sqref="A2:J32 J33:J51 A33:A51">
+    <cfRule type="expression" dxfId="6" priority="56">
       <formula>$C2=5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E33:E51">
+    <cfRule type="expression" dxfId="5" priority="6">
+      <formula>$C33=5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G33:G51">
+    <cfRule type="expression" dxfId="4" priority="5">
+      <formula>$C33=5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H33:H51">
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>$C33=5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I33:I51">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>$C33=5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B33:B51">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$C33=5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C33:C51">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$C33=5</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1935,8 +2713,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B4C63F0-02E4-48AB-8F58-B57B021B5DE4}">
   <dimension ref="A1:X66"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="G40" sqref="G40:G58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2100,11 +2878,11 @@
         <v>8</v>
       </c>
       <c r="N9" s="17">
-        <f t="shared" ref="N9:N36" si="0">POWER(10,M9)</f>
+        <f t="shared" ref="N9:N37" si="0">POWER(10,M9)</f>
         <v>100000000</v>
       </c>
       <c r="O9" s="17" t="str">
-        <f t="shared" ref="O9:O36" si="1">RIGHT(N9,M9)</f>
+        <f t="shared" ref="O9:O37" si="1">RIGHT(N9,M9)</f>
         <v>00000000</v>
       </c>
     </row>
@@ -2167,7 +2945,7 @@
         <v>4.0000000000000001E+110</v>
       </c>
       <c r="H11" s="17">
-        <f t="shared" ref="H11:H39" si="5">IF(ROUNDUP(H10*((100+$B$10)/100),0)&gt;10000,ROUNDUP(H10*((100+$B$10)/100)/10000,4),ROUNDUP(H10*((100+$B$10)/100),4))</f>
+        <f t="shared" ref="H11:H74" si="5">IF(ROUNDUP(H10*((100+$B$10)/100),0)&gt;10000,ROUNDUP(H10*((100+$B$10)/100)/10000,4),ROUNDUP(H10*((100+$B$10)/100),4))</f>
         <v>400</v>
       </c>
       <c r="I11" s="16" t="s">
@@ -2323,7 +3101,7 @@
         <v>6.4000000000000002E+111</v>
       </c>
       <c r="H15" s="17">
-        <f t="shared" si="5"/>
+        <f>IF(ROUNDUP(H14*((100+$B$10)/100),0)&gt;10000,ROUNDUP(H14*((100+$B$10)/100)/10000,4),ROUNDUP(H14*((100+$B$10)/100),4))</f>
         <v>6400</v>
       </c>
       <c r="I15" s="16" t="s">
@@ -2401,7 +3179,7 @@
         <v>2.5600000000000001E+112</v>
       </c>
       <c r="H17" s="17">
-        <f t="shared" si="5"/>
+        <f>IF(ROUNDUP(H16*((100+$B$10)/100),0)&gt;10000,ROUNDUP(H16*((100+$B$10)/100)/10000,4),ROUNDUP(H16*((100+$B$10)/100),4))</f>
         <v>2.56</v>
       </c>
       <c r="I17" s="16" t="s">
@@ -2447,7 +3225,7 @@
         <v>55</v>
       </c>
       <c r="J18" s="16" t="str">
-        <f t="shared" si="4"/>
+        <f>VLOOKUP(I18,L:O,4,FALSE)</f>
         <v>1E+112</v>
       </c>
       <c r="L18" s="16" t="s">
@@ -3218,10 +3996,20 @@
         <v>1E+116</v>
       </c>
       <c r="K37" s="13"/>
-      <c r="L37" s="13"/>
-      <c r="M37" s="13"/>
-      <c r="N37" s="13"/>
-      <c r="O37" s="13"/>
+      <c r="L37" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="M37" s="16">
+        <v>120</v>
+      </c>
+      <c r="N37" s="17">
+        <f t="shared" ref="N37:N38" si="6">POWER(10,M37)</f>
+        <v>9.9999999999999998E+119</v>
+      </c>
+      <c r="O37" s="17" t="str">
+        <f t="shared" ref="O37:O38" si="7">RIGHT(N37,M37)</f>
+        <v>1E+120</v>
+      </c>
       <c r="P37" s="11"/>
       <c r="Q37" s="11"/>
       <c r="R37" s="11"/>
@@ -3256,10 +4044,20 @@
         <v>1E+116</v>
       </c>
       <c r="K38" s="13"/>
-      <c r="L38" s="13"/>
-      <c r="M38" s="13"/>
-      <c r="N38" s="13"/>
-      <c r="O38" s="13"/>
+      <c r="L38" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="M38" s="16">
+        <v>124</v>
+      </c>
+      <c r="N38" s="17">
+        <f t="shared" si="6"/>
+        <v>9.9999999999999995E+123</v>
+      </c>
+      <c r="O38" s="17" t="str">
+        <f t="shared" si="7"/>
+        <v>1E+124</v>
+      </c>
       <c r="P38" s="11"/>
       <c r="Q38" s="11"/>
       <c r="R38" s="11"/>
@@ -3275,7 +4073,7 @@
         <v>31</v>
       </c>
       <c r="F39" s="17" t="str">
-        <f t="shared" si="2"/>
+        <f>H39&amp;I39</f>
         <v>1073.7664섬</v>
       </c>
       <c r="G39" s="17">
@@ -3309,12 +4107,28 @@
       <c r="X39" s="11"/>
     </row>
     <row r="40" spans="5:24" x14ac:dyDescent="0.3">
-      <c r="E40" s="16"/>
-      <c r="F40" s="17"/>
-      <c r="G40" s="17"/>
-      <c r="H40" s="17"/>
-      <c r="I40" s="16"/>
-      <c r="J40" s="16"/>
+      <c r="E40" s="16">
+        <v>32</v>
+      </c>
+      <c r="F40" s="17" t="str">
+        <f t="shared" ref="F40:F41" si="8">H40&amp;I40</f>
+        <v>2147.5328섬</v>
+      </c>
+      <c r="G40" s="17">
+        <f t="shared" ref="G40:G43" si="9">H40*J40</f>
+        <v>2.1475328000000001E+119</v>
+      </c>
+      <c r="H40" s="17">
+        <f t="shared" si="5"/>
+        <v>2147.5328</v>
+      </c>
+      <c r="I40" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="J40" s="16" t="str">
+        <f t="shared" ref="J40:J43" si="10">VLOOKUP(I40,L:O,4,FALSE)</f>
+        <v>1E+116</v>
+      </c>
       <c r="N40" s="11"/>
       <c r="O40" s="11"/>
       <c r="P40" s="11"/>
@@ -3328,12 +4142,28 @@
       <c r="X40" s="11"/>
     </row>
     <row r="41" spans="5:24" x14ac:dyDescent="0.3">
-      <c r="E41" s="16"/>
-      <c r="F41" s="17"/>
-      <c r="G41" s="17"/>
-      <c r="H41" s="17"/>
-      <c r="I41" s="16"/>
-      <c r="J41" s="16"/>
+      <c r="E41" s="16">
+        <v>33</v>
+      </c>
+      <c r="F41" s="17" t="str">
+        <f>H41&amp;I41</f>
+        <v>4295.0656섬</v>
+      </c>
+      <c r="G41" s="17">
+        <f t="shared" si="9"/>
+        <v>4.2950656000000002E+119</v>
+      </c>
+      <c r="H41" s="17">
+        <f t="shared" si="5"/>
+        <v>4295.0655999999999</v>
+      </c>
+      <c r="I41" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="J41" s="16" t="str">
+        <f t="shared" si="10"/>
+        <v>1E+116</v>
+      </c>
       <c r="N41" s="11"/>
       <c r="O41" s="11"/>
       <c r="P41" s="11"/>
@@ -3347,12 +4177,28 @@
       <c r="X41" s="11"/>
     </row>
     <row r="42" spans="5:24" x14ac:dyDescent="0.3">
-      <c r="E42" s="16"/>
-      <c r="F42" s="17"/>
-      <c r="G42" s="17"/>
-      <c r="H42" s="17"/>
-      <c r="I42" s="16"/>
-      <c r="J42" s="16"/>
+      <c r="E42" s="16">
+        <v>34</v>
+      </c>
+      <c r="F42" s="17" t="str">
+        <f t="shared" ref="F42:F43" si="11">H42&amp;I42</f>
+        <v>8590.1312섬</v>
+      </c>
+      <c r="G42" s="17">
+        <f t="shared" si="9"/>
+        <v>8.5901312000000004E+119</v>
+      </c>
+      <c r="H42" s="17">
+        <f t="shared" si="5"/>
+        <v>8590.1311999999998</v>
+      </c>
+      <c r="I42" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="J42" s="16" t="str">
+        <f t="shared" si="10"/>
+        <v>1E+116</v>
+      </c>
       <c r="N42" s="11"/>
       <c r="O42" s="11"/>
       <c r="P42" s="11"/>
@@ -3366,12 +4212,28 @@
       <c r="X42" s="11"/>
     </row>
     <row r="43" spans="5:24" x14ac:dyDescent="0.3">
-      <c r="E43" s="16"/>
-      <c r="F43" s="17"/>
-      <c r="G43" s="17"/>
-      <c r="H43" s="17"/>
-      <c r="I43" s="16"/>
-      <c r="J43" s="16"/>
+      <c r="E43" s="16">
+        <v>35</v>
+      </c>
+      <c r="F43" s="17" t="str">
+        <f>H43&amp;I43</f>
+        <v>1.7181찰</v>
+      </c>
+      <c r="G43" s="17">
+        <f t="shared" si="9"/>
+        <v>1.7180999999999998E+120</v>
+      </c>
+      <c r="H43" s="17">
+        <f t="shared" si="5"/>
+        <v>1.7181</v>
+      </c>
+      <c r="I43" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="J43" s="16" t="str">
+        <f t="shared" si="10"/>
+        <v>1E+120</v>
+      </c>
       <c r="N43" s="11"/>
       <c r="O43" s="11"/>
       <c r="P43" s="11"/>
@@ -3385,12 +4247,28 @@
       <c r="X43" s="11"/>
     </row>
     <row r="44" spans="5:24" x14ac:dyDescent="0.3">
-      <c r="E44" s="16"/>
-      <c r="F44" s="17"/>
-      <c r="G44" s="17"/>
-      <c r="H44" s="17"/>
-      <c r="I44" s="16"/>
-      <c r="J44" s="16"/>
+      <c r="E44" s="16">
+        <v>36</v>
+      </c>
+      <c r="F44" s="17" t="str">
+        <f t="shared" ref="F44:F48" si="12">H44&amp;I44</f>
+        <v>3.4362찰</v>
+      </c>
+      <c r="G44" s="17">
+        <f t="shared" ref="G44:G48" si="13">H44*J44</f>
+        <v>3.4361999999999996E+120</v>
+      </c>
+      <c r="H44" s="17">
+        <f t="shared" si="5"/>
+        <v>3.4361999999999999</v>
+      </c>
+      <c r="I44" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="J44" s="16" t="str">
+        <f t="shared" ref="J44:J48" si="14">VLOOKUP(I44,L:O,4,FALSE)</f>
+        <v>1E+120</v>
+      </c>
       <c r="N44" s="11"/>
       <c r="O44" s="11"/>
       <c r="P44" s="11"/>
@@ -3404,12 +4282,28 @@
       <c r="X44" s="11"/>
     </row>
     <row r="45" spans="5:24" x14ac:dyDescent="0.3">
-      <c r="E45" s="16"/>
-      <c r="F45" s="17"/>
-      <c r="G45" s="17"/>
-      <c r="H45" s="17"/>
-      <c r="I45" s="16"/>
-      <c r="J45" s="16"/>
+      <c r="E45" s="16">
+        <v>37</v>
+      </c>
+      <c r="F45" s="17" t="str">
+        <f t="shared" si="12"/>
+        <v>6.8724찰</v>
+      </c>
+      <c r="G45" s="17">
+        <f t="shared" si="13"/>
+        <v>6.8723999999999992E+120</v>
+      </c>
+      <c r="H45" s="17">
+        <f t="shared" si="5"/>
+        <v>6.8723999999999998</v>
+      </c>
+      <c r="I45" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="J45" s="16" t="str">
+        <f t="shared" si="14"/>
+        <v>1E+120</v>
+      </c>
       <c r="N45" s="11"/>
       <c r="O45" s="11"/>
       <c r="P45" s="11"/>
@@ -3423,12 +4317,28 @@
       <c r="X45" s="11"/>
     </row>
     <row r="46" spans="5:24" x14ac:dyDescent="0.3">
-      <c r="E46" s="16"/>
-      <c r="F46" s="17"/>
-      <c r="G46" s="17"/>
-      <c r="H46" s="17"/>
-      <c r="I46" s="16"/>
-      <c r="J46" s="16"/>
+      <c r="E46" s="16">
+        <v>38</v>
+      </c>
+      <c r="F46" s="17" t="str">
+        <f t="shared" si="12"/>
+        <v>13.7448찰</v>
+      </c>
+      <c r="G46" s="17">
+        <f t="shared" si="13"/>
+        <v>1.3744799999999998E+121</v>
+      </c>
+      <c r="H46" s="17">
+        <f t="shared" si="5"/>
+        <v>13.7448</v>
+      </c>
+      <c r="I46" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="J46" s="16" t="str">
+        <f t="shared" si="14"/>
+        <v>1E+120</v>
+      </c>
       <c r="N46" s="11"/>
       <c r="O46" s="11"/>
       <c r="P46" s="11"/>
@@ -3442,12 +4352,28 @@
       <c r="X46" s="11"/>
     </row>
     <row r="47" spans="5:24" x14ac:dyDescent="0.3">
-      <c r="E47" s="16"/>
-      <c r="F47" s="17"/>
-      <c r="G47" s="17"/>
-      <c r="H47" s="17"/>
-      <c r="I47" s="16"/>
-      <c r="J47" s="16"/>
+      <c r="E47" s="16">
+        <v>39</v>
+      </c>
+      <c r="F47" s="17" t="str">
+        <f t="shared" si="12"/>
+        <v>27.4896찰</v>
+      </c>
+      <c r="G47" s="17">
+        <f t="shared" si="13"/>
+        <v>2.7489599999999997E+121</v>
+      </c>
+      <c r="H47" s="17">
+        <f t="shared" si="5"/>
+        <v>27.489599999999999</v>
+      </c>
+      <c r="I47" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="J47" s="16" t="str">
+        <f t="shared" si="14"/>
+        <v>1E+120</v>
+      </c>
       <c r="N47" s="11"/>
       <c r="O47" s="11"/>
       <c r="P47" s="11"/>
@@ -3461,12 +4387,28 @@
       <c r="X47" s="11"/>
     </row>
     <row r="48" spans="5:24" x14ac:dyDescent="0.3">
-      <c r="E48" s="16"/>
-      <c r="F48" s="17"/>
-      <c r="G48" s="17"/>
-      <c r="H48" s="17"/>
-      <c r="I48" s="16"/>
-      <c r="J48" s="16"/>
+      <c r="E48" s="16">
+        <v>40</v>
+      </c>
+      <c r="F48" s="17" t="str">
+        <f t="shared" si="12"/>
+        <v>54.9792찰</v>
+      </c>
+      <c r="G48" s="17">
+        <f t="shared" si="13"/>
+        <v>5.4979199999999994E+121</v>
+      </c>
+      <c r="H48" s="17">
+        <f t="shared" si="5"/>
+        <v>54.979199999999999</v>
+      </c>
+      <c r="I48" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="J48" s="16" t="str">
+        <f t="shared" si="14"/>
+        <v>1E+120</v>
+      </c>
       <c r="N48" s="11"/>
       <c r="O48" s="11"/>
       <c r="P48" s="11"/>
@@ -3480,12 +4422,28 @@
       <c r="X48" s="11"/>
     </row>
     <row r="49" spans="5:24" x14ac:dyDescent="0.3">
-      <c r="E49" s="16"/>
-      <c r="F49" s="17"/>
-      <c r="G49" s="17"/>
-      <c r="H49" s="17"/>
-      <c r="I49" s="16"/>
-      <c r="J49" s="16"/>
+      <c r="E49" s="16">
+        <v>41</v>
+      </c>
+      <c r="F49" s="17" t="str">
+        <f t="shared" ref="F49:F53" si="15">H49&amp;I49</f>
+        <v>109.9584찰</v>
+      </c>
+      <c r="G49" s="17">
+        <f t="shared" ref="G49:G53" si="16">H49*J49</f>
+        <v>1.0995839999999999E+122</v>
+      </c>
+      <c r="H49" s="17">
+        <f t="shared" si="5"/>
+        <v>109.9584</v>
+      </c>
+      <c r="I49" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="J49" s="16" t="str">
+        <f t="shared" ref="J49:J53" si="17">VLOOKUP(I49,L:O,4,FALSE)</f>
+        <v>1E+120</v>
+      </c>
       <c r="N49" s="11"/>
       <c r="O49" s="11"/>
       <c r="P49" s="11"/>
@@ -3499,12 +4457,28 @@
       <c r="X49" s="11"/>
     </row>
     <row r="50" spans="5:24" x14ac:dyDescent="0.3">
-      <c r="E50" s="16"/>
-      <c r="F50" s="17"/>
-      <c r="G50" s="17"/>
-      <c r="H50" s="17"/>
-      <c r="I50" s="16"/>
-      <c r="J50" s="16"/>
+      <c r="E50" s="16">
+        <v>42</v>
+      </c>
+      <c r="F50" s="17" t="str">
+        <f t="shared" si="15"/>
+        <v>219.9168찰</v>
+      </c>
+      <c r="G50" s="17">
+        <f t="shared" si="16"/>
+        <v>2.1991679999999998E+122</v>
+      </c>
+      <c r="H50" s="17">
+        <f t="shared" si="5"/>
+        <v>219.91679999999999</v>
+      </c>
+      <c r="I50" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="J50" s="16" t="str">
+        <f t="shared" si="17"/>
+        <v>1E+120</v>
+      </c>
       <c r="N50" s="11"/>
       <c r="O50" s="11"/>
       <c r="P50" s="11"/>
@@ -3518,12 +4492,28 @@
       <c r="X50" s="11"/>
     </row>
     <row r="51" spans="5:24" x14ac:dyDescent="0.3">
-      <c r="E51" s="16"/>
-      <c r="F51" s="17"/>
-      <c r="G51" s="17"/>
-      <c r="H51" s="17"/>
-      <c r="I51" s="16"/>
-      <c r="J51" s="16"/>
+      <c r="E51" s="16">
+        <v>43</v>
+      </c>
+      <c r="F51" s="17" t="str">
+        <f t="shared" si="15"/>
+        <v>439.8336찰</v>
+      </c>
+      <c r="G51" s="17">
+        <f t="shared" si="16"/>
+        <v>4.3983359999999995E+122</v>
+      </c>
+      <c r="H51" s="17">
+        <f t="shared" si="5"/>
+        <v>439.83359999999999</v>
+      </c>
+      <c r="I51" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="J51" s="16" t="str">
+        <f t="shared" si="17"/>
+        <v>1E+120</v>
+      </c>
       <c r="N51" s="11"/>
       <c r="O51" s="11"/>
       <c r="P51" s="11"/>
@@ -3537,12 +4527,28 @@
       <c r="X51" s="11"/>
     </row>
     <row r="52" spans="5:24" x14ac:dyDescent="0.3">
-      <c r="E52" s="16"/>
-      <c r="F52" s="17"/>
-      <c r="G52" s="17"/>
-      <c r="H52" s="17"/>
-      <c r="I52" s="16"/>
-      <c r="J52" s="16"/>
+      <c r="E52" s="16">
+        <v>44</v>
+      </c>
+      <c r="F52" s="17" t="str">
+        <f t="shared" si="15"/>
+        <v>879.6672찰</v>
+      </c>
+      <c r="G52" s="17">
+        <f t="shared" si="16"/>
+        <v>8.796671999999999E+122</v>
+      </c>
+      <c r="H52" s="17">
+        <f t="shared" si="5"/>
+        <v>879.66719999999998</v>
+      </c>
+      <c r="I52" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="J52" s="16" t="str">
+        <f t="shared" si="17"/>
+        <v>1E+120</v>
+      </c>
       <c r="N52" s="11"/>
       <c r="O52" s="11"/>
       <c r="P52" s="11"/>
@@ -3556,12 +4562,28 @@
       <c r="X52" s="11"/>
     </row>
     <row r="53" spans="5:24" x14ac:dyDescent="0.3">
-      <c r="E53" s="16"/>
-      <c r="F53" s="17"/>
-      <c r="G53" s="17"/>
-      <c r="H53" s="17"/>
-      <c r="I53" s="16"/>
-      <c r="J53" s="16"/>
+      <c r="E53" s="16">
+        <v>45</v>
+      </c>
+      <c r="F53" s="17" t="str">
+        <f t="shared" si="15"/>
+        <v>1759.3344찰</v>
+      </c>
+      <c r="G53" s="17">
+        <f t="shared" si="16"/>
+        <v>1.7593343999999998E+123</v>
+      </c>
+      <c r="H53" s="17">
+        <f t="shared" si="5"/>
+        <v>1759.3344</v>
+      </c>
+      <c r="I53" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="J53" s="16" t="str">
+        <f t="shared" si="17"/>
+        <v>1E+120</v>
+      </c>
       <c r="N53" s="11"/>
       <c r="O53" s="11"/>
       <c r="P53" s="11"/>
@@ -3575,12 +4597,28 @@
       <c r="X53" s="11"/>
     </row>
     <row r="54" spans="5:24" x14ac:dyDescent="0.3">
-      <c r="E54" s="16"/>
-      <c r="F54" s="17"/>
-      <c r="G54" s="17"/>
-      <c r="H54" s="17"/>
-      <c r="I54" s="16"/>
-      <c r="J54" s="16"/>
+      <c r="E54" s="16">
+        <v>46</v>
+      </c>
+      <c r="F54" s="17" t="str">
+        <f t="shared" ref="F54:F58" si="18">H54&amp;I54</f>
+        <v>3518.6688찰</v>
+      </c>
+      <c r="G54" s="17">
+        <f t="shared" ref="G54:G58" si="19">H54*J54</f>
+        <v>3.5186687999999996E+123</v>
+      </c>
+      <c r="H54" s="17">
+        <f t="shared" si="5"/>
+        <v>3518.6687999999999</v>
+      </c>
+      <c r="I54" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="J54" s="16" t="str">
+        <f t="shared" ref="J54:J58" si="20">VLOOKUP(I54,L:O,4,FALSE)</f>
+        <v>1E+120</v>
+      </c>
       <c r="N54" s="11"/>
       <c r="O54" s="11"/>
       <c r="P54" s="11"/>
@@ -3594,12 +4632,28 @@
       <c r="X54" s="11"/>
     </row>
     <row r="55" spans="5:24" x14ac:dyDescent="0.3">
-      <c r="E55" s="16"/>
-      <c r="F55" s="17"/>
-      <c r="G55" s="17"/>
-      <c r="H55" s="17"/>
-      <c r="I55" s="16"/>
-      <c r="J55" s="16"/>
+      <c r="E55" s="16">
+        <v>47</v>
+      </c>
+      <c r="F55" s="17" t="str">
+        <f t="shared" si="18"/>
+        <v>7037.3376찰</v>
+      </c>
+      <c r="G55" s="17">
+        <f t="shared" si="19"/>
+        <v>7.0373375999999992E+123</v>
+      </c>
+      <c r="H55" s="17">
+        <f t="shared" si="5"/>
+        <v>7037.3375999999998</v>
+      </c>
+      <c r="I55" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="J55" s="16" t="str">
+        <f t="shared" si="20"/>
+        <v>1E+120</v>
+      </c>
       <c r="N55" s="11"/>
       <c r="O55" s="11"/>
       <c r="P55" s="11"/>
@@ -3613,12 +4667,28 @@
       <c r="X55" s="11"/>
     </row>
     <row r="56" spans="5:24" x14ac:dyDescent="0.3">
-      <c r="E56" s="16"/>
-      <c r="F56" s="17"/>
-      <c r="G56" s="17"/>
-      <c r="H56" s="17"/>
-      <c r="I56" s="16"/>
-      <c r="J56" s="16"/>
+      <c r="E56" s="16">
+        <v>48</v>
+      </c>
+      <c r="F56" s="17" t="str">
+        <f t="shared" si="18"/>
+        <v>1.4075교</v>
+      </c>
+      <c r="G56" s="17">
+        <f t="shared" si="19"/>
+        <v>1.4075E+124</v>
+      </c>
+      <c r="H56" s="17">
+        <f t="shared" si="5"/>
+        <v>1.4075</v>
+      </c>
+      <c r="I56" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="J56" s="16" t="str">
+        <f t="shared" si="20"/>
+        <v>1E+124</v>
+      </c>
       <c r="N56" s="11"/>
       <c r="O56" s="11"/>
       <c r="P56" s="11"/>
@@ -3632,12 +4702,28 @@
       <c r="X56" s="11"/>
     </row>
     <row r="57" spans="5:24" x14ac:dyDescent="0.3">
-      <c r="E57" s="16"/>
-      <c r="F57" s="17"/>
-      <c r="G57" s="17"/>
-      <c r="H57" s="17"/>
-      <c r="I57" s="16"/>
-      <c r="J57" s="16"/>
+      <c r="E57" s="16">
+        <v>49</v>
+      </c>
+      <c r="F57" s="17" t="str">
+        <f t="shared" si="18"/>
+        <v>2.815교</v>
+      </c>
+      <c r="G57" s="17">
+        <f t="shared" si="19"/>
+        <v>2.8149999999999999E+124</v>
+      </c>
+      <c r="H57" s="17">
+        <f t="shared" si="5"/>
+        <v>2.8149999999999999</v>
+      </c>
+      <c r="I57" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="J57" s="16" t="str">
+        <f t="shared" si="20"/>
+        <v>1E+124</v>
+      </c>
       <c r="N57" s="11"/>
       <c r="O57" s="11"/>
       <c r="P57" s="11"/>
@@ -3651,12 +4737,28 @@
       <c r="X57" s="11"/>
     </row>
     <row r="58" spans="5:24" x14ac:dyDescent="0.3">
-      <c r="E58" s="16"/>
-      <c r="F58" s="17"/>
-      <c r="G58" s="17"/>
-      <c r="H58" s="17"/>
-      <c r="I58" s="16"/>
-      <c r="J58" s="16"/>
+      <c r="E58" s="16">
+        <v>50</v>
+      </c>
+      <c r="F58" s="17" t="str">
+        <f t="shared" si="18"/>
+        <v>5.63교</v>
+      </c>
+      <c r="G58" s="17">
+        <f t="shared" si="19"/>
+        <v>5.6299999999999999E+124</v>
+      </c>
+      <c r="H58" s="17">
+        <f t="shared" si="5"/>
+        <v>5.63</v>
+      </c>
+      <c r="I58" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="J58" s="16" t="str">
+        <f t="shared" si="20"/>
+        <v>1E+124</v>
+      </c>
       <c r="N58" s="11"/>
       <c r="O58" s="11"/>
       <c r="P58" s="11"/>

--- a/Assets/06.Table/SinsunTowerTable.xlsx
+++ b/Assets/06.Table/SinsunTowerTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ACD8BA9-2606-4EB6-B648-D8C10B025AE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{685269B0-36D2-4C19-A84C-01302BE0D437}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="SinsunTowerTable" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="59">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -525,73 +525,7 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="dashed">
-          <color rgb="FFFF0000"/>
-        </top>
-        <bottom style="dashed">
-          <color rgb="FFFF0000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="dashed">
-          <color rgb="FFFF0000"/>
-        </top>
-        <bottom style="dashed">
-          <color rgb="FFFF0000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="dashed">
-          <color rgb="FFFF0000"/>
-        </top>
-        <bottom style="dashed">
-          <color rgb="FFFF0000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <font>
         <b/>
@@ -990,11 +924,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:J51"/>
+  <dimension ref="A1:J71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F36" sqref="F36"/>
+      <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1245,7 +1179,7 @@
         <v>9029</v>
       </c>
       <c r="D8">
-        <f t="shared" ref="D8:D52" si="0">D3+1</f>
+        <f t="shared" ref="D8:D71" si="0">D3+1</f>
         <v>4</v>
       </c>
       <c r="E8">
@@ -2070,6 +2004,7 @@
         <v>9029</v>
       </c>
       <c r="D33">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="E33">
@@ -2102,6 +2037,7 @@
         <v>9029</v>
       </c>
       <c r="D34">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="E34">
@@ -2134,6 +2070,7 @@
         <v>9029</v>
       </c>
       <c r="D35">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="E35">
@@ -2166,6 +2103,7 @@
         <v>9029</v>
       </c>
       <c r="D36">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="E36">
@@ -2198,6 +2136,7 @@
         <v>9029</v>
       </c>
       <c r="D37">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="E37">
@@ -2230,6 +2169,7 @@
         <v>9029</v>
       </c>
       <c r="D38">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="E38">
@@ -2262,6 +2202,7 @@
         <v>9029</v>
       </c>
       <c r="D39">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="E39">
@@ -2294,6 +2235,7 @@
         <v>9029</v>
       </c>
       <c r="D40">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="E40">
@@ -2326,6 +2268,7 @@
         <v>9029</v>
       </c>
       <c r="D41">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="E41">
@@ -2358,6 +2301,7 @@
         <v>9029</v>
       </c>
       <c r="D42">
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="E42">
@@ -2390,6 +2334,7 @@
         <v>9029</v>
       </c>
       <c r="D43">
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="E43">
@@ -2422,6 +2367,7 @@
         <v>9029</v>
       </c>
       <c r="D44">
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="E44">
@@ -2454,6 +2400,7 @@
         <v>9029</v>
       </c>
       <c r="D45">
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="E45">
@@ -2486,6 +2433,7 @@
         <v>9029</v>
       </c>
       <c r="D46">
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="E46">
@@ -2518,6 +2466,7 @@
         <v>9029</v>
       </c>
       <c r="D47">
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="E47">
@@ -2550,6 +2499,7 @@
         <v>9029</v>
       </c>
       <c r="D48">
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="E48">
@@ -2582,6 +2532,7 @@
         <v>9029</v>
       </c>
       <c r="D49">
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="E49">
@@ -2614,6 +2565,7 @@
         <v>9029</v>
       </c>
       <c r="D50">
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="E50">
@@ -2646,6 +2598,7 @@
         <v>9029</v>
       </c>
       <c r="D51">
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="E51">
@@ -2667,40 +2620,685 @@
         <v>11800</v>
       </c>
     </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C52">
+        <v>9029</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52">
+        <v>8.4449999999999998E+124</v>
+      </c>
+      <c r="G52">
+        <v>1000</v>
+      </c>
+      <c r="H52">
+        <v>8</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>51</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C53">
+        <v>9029</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53">
+        <v>1.126E+125</v>
+      </c>
+      <c r="G53">
+        <v>1000</v>
+      </c>
+      <c r="H53">
+        <v>8</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>12200</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>52</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C54">
+        <v>9029</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+      <c r="F54">
+        <v>1.4075E+125</v>
+      </c>
+      <c r="G54">
+        <v>1000</v>
+      </c>
+      <c r="H54">
+        <v>8</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>12400</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>53</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C55">
+        <v>9029</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="E55">
+        <v>1</v>
+      </c>
+      <c r="F55">
+        <v>1.689E+125</v>
+      </c>
+      <c r="G55">
+        <v>1000</v>
+      </c>
+      <c r="H55">
+        <v>8</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>12600</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>54</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C56">
+        <v>9029</v>
+      </c>
+      <c r="D56">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="F56">
+        <v>1.9705E+125</v>
+      </c>
+      <c r="G56">
+        <v>1000</v>
+      </c>
+      <c r="H56">
+        <v>8</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>12800</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>55</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C57">
+        <v>9029</v>
+      </c>
+      <c r="D57">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+      <c r="F57">
+        <v>2.2519999999999999E+125</v>
+      </c>
+      <c r="G57">
+        <v>1000</v>
+      </c>
+      <c r="H57">
+        <v>8</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>56</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C58">
+        <v>9029</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="F58">
+        <v>2.5334999999999999E+125</v>
+      </c>
+      <c r="G58">
+        <v>1000</v>
+      </c>
+      <c r="H58">
+        <v>8</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>13200</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>57</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C59">
+        <v>9029</v>
+      </c>
+      <c r="D59">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+      <c r="F59">
+        <v>2.8149999999999999E+125</v>
+      </c>
+      <c r="G59">
+        <v>1000</v>
+      </c>
+      <c r="H59">
+        <v>8</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>13400</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>58</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C60">
+        <v>9029</v>
+      </c>
+      <c r="D60">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
+      <c r="F60">
+        <v>3.0964999999999999E+125</v>
+      </c>
+      <c r="G60">
+        <v>1000</v>
+      </c>
+      <c r="H60">
+        <v>8</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>13600</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>59</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C61">
+        <v>9029</v>
+      </c>
+      <c r="D61">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+      <c r="F61">
+        <v>3.3779999999999999E+125</v>
+      </c>
+      <c r="G61">
+        <v>1000</v>
+      </c>
+      <c r="H61">
+        <v>8</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>13800</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>60</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C62">
+        <v>9029</v>
+      </c>
+      <c r="D62">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="E62">
+        <v>1</v>
+      </c>
+      <c r="F62">
+        <v>3.6594999999999999E+125</v>
+      </c>
+      <c r="G62">
+        <v>1000</v>
+      </c>
+      <c r="H62">
+        <v>8</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>14000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>61</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C63">
+        <v>9029</v>
+      </c>
+      <c r="D63">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="E63">
+        <v>1</v>
+      </c>
+      <c r="F63">
+        <v>3.9409999999999999E+125</v>
+      </c>
+      <c r="G63">
+        <v>1000</v>
+      </c>
+      <c r="H63">
+        <v>8</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>14200</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>62</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C64">
+        <v>9029</v>
+      </c>
+      <c r="D64">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="E64">
+        <v>1</v>
+      </c>
+      <c r="F64">
+        <v>4.2224999999999999E+125</v>
+      </c>
+      <c r="G64">
+        <v>1000</v>
+      </c>
+      <c r="H64">
+        <v>8</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>14400</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>63</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C65">
+        <v>9029</v>
+      </c>
+      <c r="D65">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="E65">
+        <v>1</v>
+      </c>
+      <c r="F65">
+        <v>4.5039999999999999E+125</v>
+      </c>
+      <c r="G65">
+        <v>1000</v>
+      </c>
+      <c r="H65">
+        <v>8</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>14600</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>64</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C66">
+        <v>9029</v>
+      </c>
+      <c r="D66">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="E66">
+        <v>1</v>
+      </c>
+      <c r="F66">
+        <v>4.7854999999999999E+125</v>
+      </c>
+      <c r="G66">
+        <v>1000</v>
+      </c>
+      <c r="H66">
+        <v>8</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>14800</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>65</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C67">
+        <v>9029</v>
+      </c>
+      <c r="D67">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="E67">
+        <v>1</v>
+      </c>
+      <c r="F67">
+        <v>5.0669999999999999E+125</v>
+      </c>
+      <c r="G67">
+        <v>1000</v>
+      </c>
+      <c r="H67">
+        <v>8</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>66</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C68">
+        <v>9029</v>
+      </c>
+      <c r="D68">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="E68">
+        <v>1</v>
+      </c>
+      <c r="F68">
+        <v>5.3484999999999999E+125</v>
+      </c>
+      <c r="G68">
+        <v>1000</v>
+      </c>
+      <c r="H68">
+        <v>8</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>15200</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>67</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C69">
+        <v>9029</v>
+      </c>
+      <c r="D69">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="E69">
+        <v>1</v>
+      </c>
+      <c r="F69">
+        <v>5.6299999999999999E+125</v>
+      </c>
+      <c r="G69">
+        <v>1000</v>
+      </c>
+      <c r="H69">
+        <v>8</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>15400</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>68</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C70">
+        <v>9029</v>
+      </c>
+      <c r="D70">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="E70">
+        <v>1</v>
+      </c>
+      <c r="F70">
+        <v>5.9114999999999999E+125</v>
+      </c>
+      <c r="G70">
+        <v>1000</v>
+      </c>
+      <c r="H70">
+        <v>8</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>15600</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>69</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C71">
+        <v>9029</v>
+      </c>
+      <c r="D71">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="E71">
+        <v>1</v>
+      </c>
+      <c r="F71">
+        <v>6.1929999999999999E+125</v>
+      </c>
+      <c r="G71">
+        <v>1000</v>
+      </c>
+      <c r="H71">
+        <v>8</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>15800</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2:J32 J33:J51 A33:A51">
-    <cfRule type="expression" dxfId="6" priority="56">
+  <conditionalFormatting sqref="A33:C71">
+    <cfRule type="expression" dxfId="3" priority="1">
+      <formula>$C33=5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:J29 A30:C32 E30:J32 D30:D71">
+    <cfRule type="expression" dxfId="2" priority="56">
       <formula>$C2=5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E33:E51">
-    <cfRule type="expression" dxfId="5" priority="6">
+  <conditionalFormatting sqref="E33:E71">
+    <cfRule type="expression" dxfId="1" priority="6">
       <formula>$C33=5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G33:G51">
-    <cfRule type="expression" dxfId="4" priority="5">
-      <formula>$C33=5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H33:H51">
-    <cfRule type="expression" dxfId="3" priority="4">
-      <formula>$C33=5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I33:I51">
-    <cfRule type="expression" dxfId="2" priority="3">
-      <formula>$C33=5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B33:B51">
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>$C33=5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C33:C51">
-    <cfRule type="expression" dxfId="0" priority="1">
+  <conditionalFormatting sqref="G33:J71">
+    <cfRule type="expression" dxfId="0" priority="3">
       <formula>$C33=5</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2713,7 +3311,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B4C63F0-02E4-48AB-8F58-B57B021B5DE4}">
   <dimension ref="A1:X66"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G40" sqref="G40:G58"/>
     </sheetView>
   </sheetViews>
@@ -2878,11 +3476,11 @@
         <v>8</v>
       </c>
       <c r="N9" s="17">
-        <f t="shared" ref="N9:N37" si="0">POWER(10,M9)</f>
+        <f t="shared" ref="N9:N36" si="0">POWER(10,M9)</f>
         <v>100000000</v>
       </c>
       <c r="O9" s="17" t="str">
-        <f t="shared" ref="O9:O37" si="1">RIGHT(N9,M9)</f>
+        <f t="shared" ref="O9:O36" si="1">RIGHT(N9,M9)</f>
         <v>00000000</v>
       </c>
     </row>
@@ -2898,7 +3496,7 @@
         <v>2</v>
       </c>
       <c r="F10" s="17" t="str">
-        <f t="shared" ref="F10:F39" si="2">H10&amp;I10</f>
+        <f t="shared" ref="F10:F38" si="2">H10&amp;I10</f>
         <v>200마</v>
       </c>
       <c r="G10" s="17">
@@ -2945,7 +3543,7 @@
         <v>4.0000000000000001E+110</v>
       </c>
       <c r="H11" s="17">
-        <f t="shared" ref="H11:H74" si="5">IF(ROUNDUP(H10*((100+$B$10)/100),0)&gt;10000,ROUNDUP(H10*((100+$B$10)/100)/10000,4),ROUNDUP(H10*((100+$B$10)/100),4))</f>
+        <f t="shared" ref="H11:H58" si="5">IF(ROUNDUP(H10*((100+$B$10)/100),0)&gt;10000,ROUNDUP(H10*((100+$B$10)/100)/10000,4),ROUNDUP(H10*((100+$B$10)/100),4))</f>
         <v>400</v>
       </c>
       <c r="I11" s="16" t="s">
@@ -4111,7 +4709,7 @@
         <v>32</v>
       </c>
       <c r="F40" s="17" t="str">
-        <f t="shared" ref="F40:F41" si="8">H40&amp;I40</f>
+        <f t="shared" ref="F40" si="8">H40&amp;I40</f>
         <v>2147.5328섬</v>
       </c>
       <c r="G40" s="17">
@@ -4181,7 +4779,7 @@
         <v>34</v>
       </c>
       <c r="F42" s="17" t="str">
-        <f t="shared" ref="F42:F43" si="11">H42&amp;I42</f>
+        <f t="shared" ref="F42" si="11">H42&amp;I42</f>
         <v>8590.1312섬</v>
       </c>
       <c r="G42" s="17">
